--- a/data/trans_orig/P13A_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P13A_2023-Edad-trans_orig.xlsx
@@ -754,19 +754,19 @@
         <v>19847</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>9303</v>
+        <v>10252</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>35608</v>
+        <v>35565</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.05534369715766762</v>
+        <v>0.05534369715766763</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02594129521254176</v>
+        <v>0.02858803360342859</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.09929256659744568</v>
+        <v>0.09917320820287197</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>9</v>
@@ -775,19 +775,19 @@
         <v>19847</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9875</v>
+        <v>9833</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>39067</v>
+        <v>37370</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02589615389499976</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0128849525218399</v>
+        <v>0.01282992942778829</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05097386271993268</v>
+        <v>0.04875976394807745</v>
       </c>
     </row>
     <row r="5">
@@ -804,19 +804,19 @@
         <v>9107</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2595</v>
+        <v>2601</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23692</v>
+        <v>26165</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02233273284300646</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.00636287392273635</v>
+        <v>0.006379240703375377</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0580989506964173</v>
+        <v>0.06416139828746004</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>9</v>
@@ -825,19 +825,19 @@
         <v>14625</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>6919</v>
+        <v>6457</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26529</v>
+        <v>27894</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.04078084943177605</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01929258001810788</v>
+        <v>0.01800599020553138</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.07397806826878783</v>
+        <v>0.07778279719514222</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>12</v>
@@ -846,19 +846,19 @@
         <v>23732</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>12274</v>
+        <v>11968</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>44077</v>
+        <v>42105</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03096488592982797</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01601541843275905</v>
+        <v>0.01561587058620701</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05751100281981154</v>
+        <v>0.0549384630204191</v>
       </c>
     </row>
     <row r="6">
@@ -875,19 +875,19 @@
         <v>41323</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23353</v>
+        <v>23083</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>62976</v>
+        <v>63888</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1013339389145884</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05726688768060922</v>
+        <v>0.05660376366138377</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1544324480363087</v>
+        <v>0.1566666124740898</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>35</v>
@@ -896,19 +896,19 @@
         <v>64045</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>46172</v>
+        <v>45914</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>85698</v>
+        <v>87058</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1785906497045627</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1287507847100162</v>
+        <v>0.1280333070175669</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2389716069380292</v>
+        <v>0.2427621055758828</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>52</v>
@@ -917,19 +917,19 @@
         <v>105368</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>79212</v>
+        <v>81333</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>134181</v>
+        <v>138772</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1374835236873412</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.103354671521195</v>
+        <v>0.1061225758046223</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1750777907993107</v>
+        <v>0.1810680985717318</v>
       </c>
     </row>
     <row r="7">
@@ -946,19 +946,19 @@
         <v>357363</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>333134</v>
+        <v>333372</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>376307</v>
+        <v>376550</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.8763333282424053</v>
+        <v>0.8763333282424052</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8169185678119094</v>
+        <v>0.8175025700645481</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9227888630105068</v>
+        <v>0.923385739546744</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>152</v>
@@ -967,19 +967,19 @@
         <v>260097</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>235390</v>
+        <v>235644</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>283869</v>
+        <v>284002</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7252848037059936</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.6563893408247214</v>
+        <v>0.6570992489546819</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.7915760383535758</v>
+        <v>0.7919454161641212</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>304</v>
@@ -988,19 +988,19 @@
         <v>617460</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>583551</v>
+        <v>580765</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>650332</v>
+        <v>648650</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8056554364878311</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7614113594802971</v>
+        <v>0.7577761164838868</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8485466826803214</v>
+        <v>0.8463517446829902</v>
       </c>
     </row>
     <row r="8">
@@ -1092,19 +1092,19 @@
         <v>5404</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1920</v>
+        <v>1895</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>14372</v>
+        <v>13279</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01133120532306965</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.004025626584667096</v>
+        <v>0.003972991586171702</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03013777817829257</v>
+        <v>0.02784495518827497</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>10</v>
@@ -1113,19 +1113,19 @@
         <v>10003</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4736</v>
+        <v>4940</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>17400</v>
+        <v>18499</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02000100019436383</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.009470272435388331</v>
+        <v>0.009878764540630894</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03479161675576808</v>
+        <v>0.03699004436298593</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>14</v>
@@ -1134,19 +1134,19 @@
         <v>15406</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>8999</v>
+        <v>8825</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>25644</v>
+        <v>25681</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.01576911823620568</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.009211177180297755</v>
+        <v>0.009032457690230979</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02624724864357998</v>
+        <v>0.02628533133069571</v>
       </c>
     </row>
     <row r="10">
@@ -1163,19 +1163,19 @@
         <v>9792</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3531</v>
+        <v>4439</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>21006</v>
+        <v>23227</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.02053273113380392</v>
+        <v>0.02053273113380391</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.007403689613305045</v>
+        <v>0.009308683690215716</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04404765744622319</v>
+        <v>0.04870516005460597</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>27</v>
@@ -1184,19 +1184,19 @@
         <v>31397</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>20946</v>
+        <v>21307</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>46989</v>
+        <v>45571</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.06278097202730425</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04188305146120046</v>
+        <v>0.04260406923120957</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.09395752744134114</v>
+        <v>0.09112285324685396</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>33</v>
@@ -1205,19 +1205,19 @@
         <v>41189</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>27916</v>
+        <v>28963</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>57677</v>
+        <v>58288</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.0421588499292257</v>
+        <v>0.04215884992922571</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02857333904396922</v>
+        <v>0.02964457352823462</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.0590351170543426</v>
+        <v>0.05966031138343177</v>
       </c>
     </row>
     <row r="11">
@@ -1234,19 +1234,19 @@
         <v>86394</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>63142</v>
+        <v>63235</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>110529</v>
+        <v>112904</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1811618146607549</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1324028552912788</v>
+        <v>0.1325981613808473</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2317705616004803</v>
+        <v>0.2367513175003746</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>121</v>
@@ -1255,19 +1255,19 @@
         <v>131344</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>109847</v>
+        <v>112315</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>150515</v>
+        <v>153127</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2626309057111038</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2196464498768533</v>
+        <v>0.2245822214433309</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3009654791098524</v>
+        <v>0.3061882760680117</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>169</v>
@@ -1276,19 +1276,19 @@
         <v>217738</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>187732</v>
+        <v>189330</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>250529</v>
+        <v>246268</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2228643850861411</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1921522178501557</v>
+        <v>0.1937872750418799</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2564277921889657</v>
+        <v>0.2520661264886345</v>
       </c>
     </row>
     <row r="12">
@@ -1305,19 +1305,19 @@
         <v>375300</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>348273</v>
+        <v>348357</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>400858</v>
+        <v>398505</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.7869742488823716</v>
+        <v>0.7869742488823714</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7302999068090543</v>
+        <v>0.7304766907179614</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8405661373042037</v>
+        <v>0.8356336753537476</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>301</v>
@@ -1326,19 +1326,19 @@
         <v>327364</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>305664</v>
+        <v>305196</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>349368</v>
+        <v>349607</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.6545871220672279</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6111966147307237</v>
+        <v>0.6102607080578245</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.698584413189323</v>
+        <v>0.699062159688902</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>545</v>
@@ -1347,19 +1347,19 @@
         <v>702664</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>669156</v>
+        <v>668829</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>735782</v>
+        <v>732355</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7192076467484275</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6849103084882641</v>
+        <v>0.6845755981207011</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7531047010034424</v>
+        <v>0.7495975985171532</v>
       </c>
     </row>
     <row r="13">
@@ -1451,19 +1451,19 @@
         <v>7122</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>2783</v>
+        <v>2787</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15586</v>
+        <v>15377</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.01153581747619169</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.004508084328186197</v>
+        <v>0.004514765151427155</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02524407129208392</v>
+        <v>0.02490562924248911</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>27</v>
@@ -1472,19 +1472,19 @@
         <v>19652</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12852</v>
+        <v>13227</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>27586</v>
+        <v>27985</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03175499630910266</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02076660266457809</v>
+        <v>0.02137270151921747</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04457481387850924</v>
+        <v>0.04521933239823034</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>32</v>
@@ -1493,19 +1493,19 @@
         <v>26774</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>18425</v>
+        <v>18493</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>37241</v>
+        <v>38461</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.02165734748138128</v>
+        <v>0.02165734748138129</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01490406768964121</v>
+        <v>0.01495885636270498</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03012400140818322</v>
+        <v>0.03111082906284824</v>
       </c>
     </row>
     <row r="15">
@@ -1522,19 +1522,19 @@
         <v>13743</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7213</v>
+        <v>7465</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>22112</v>
+        <v>22902</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02225918005499301</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01168255814627013</v>
+        <v>0.01209046599271591</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.03581424170516155</v>
+        <v>0.0370934995021677</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>47</v>
@@ -1543,19 +1543,19 @@
         <v>32351</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>23872</v>
+        <v>23261</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>42848</v>
+        <v>42105</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.05227512430741287</v>
+        <v>0.05227512430741288</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03857386022643872</v>
+        <v>0.03758717967049108</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.06923673660171681</v>
+        <v>0.06803628113968065</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>60</v>
@@ -1564,19 +1564,19 @@
         <v>46094</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>35717</v>
+        <v>34661</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>59337</v>
+        <v>58990</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.03728487832373058</v>
+        <v>0.03728487832373059</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02889083376511017</v>
+        <v>0.02803637830162315</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.04799647078482072</v>
+        <v>0.0477164118458716</v>
       </c>
     </row>
     <row r="16">
@@ -1593,19 +1593,19 @@
         <v>102699</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>83514</v>
+        <v>83308</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>124020</v>
+        <v>123671</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1663390629458044</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1352653852217528</v>
+        <v>0.1349325258183008</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2008720604122869</v>
+        <v>0.2003075192797256</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>233</v>
@@ -1614,19 +1614,19 @@
         <v>173007</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>154246</v>
+        <v>154226</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>191797</v>
+        <v>191730</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2795547912355427</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2492393080722816</v>
+        <v>0.2492069546710835</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.309917243429557</v>
+        <v>0.309807832561492</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>324</v>
@@ -1635,19 +1635,19 @@
         <v>275706</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>248279</v>
+        <v>249731</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>302422</v>
+        <v>306399</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2230137874939032</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2008286556566919</v>
+        <v>0.2020032027345806</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2446239021421902</v>
+        <v>0.2478411423543208</v>
       </c>
     </row>
     <row r="17">
@@ -1664,19 +1664,19 @@
         <v>493842</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>472023</v>
+        <v>470978</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>514650</v>
+        <v>515749</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.7998659395230109</v>
+        <v>0.799865939523011</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7645262327830641</v>
+        <v>0.7628332784806641</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8335681444289254</v>
+        <v>0.835347477260233</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>535</v>
@@ -1685,19 +1685,19 @@
         <v>393856</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>374515</v>
+        <v>374006</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>414623</v>
+        <v>414230</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6364150881479418</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6051630931623957</v>
+        <v>0.6043408093132443</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6699722908322758</v>
+        <v>0.6693369056449181</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>969</v>
@@ -1706,19 +1706,19 @@
         <v>887698</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>857886</v>
+        <v>857477</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>918610</v>
+        <v>917074</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7180439867009848</v>
+        <v>0.718043986700985</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6939294122719812</v>
+        <v>0.6935986530129788</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7430487618051688</v>
+        <v>0.7418060122493999</v>
       </c>
     </row>
     <row r="18">
@@ -1810,19 +1810,19 @@
         <v>7391</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>3149</v>
+        <v>3322</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>14917</v>
+        <v>15527</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.01056635496611798</v>
+        <v>0.01056635496611797</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.004502038205232418</v>
+        <v>0.004748471084972137</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02132483881748152</v>
+        <v>0.02219632586494762</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>62</v>
@@ -1831,19 +1831,19 @@
         <v>42479</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>33096</v>
+        <v>32870</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>54061</v>
+        <v>53250</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.05787092812778847</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04508768956005548</v>
+        <v>0.04478013129150311</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07365049748239345</v>
+        <v>0.07254469853969446</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>69</v>
@@ -1852,19 +1852,19 @@
         <v>49870</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>39324</v>
+        <v>38974</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>62661</v>
+        <v>64251</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03478797607073719</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02743146410028151</v>
+        <v>0.02718699326521513</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04371024907542425</v>
+        <v>0.04481977050224482</v>
       </c>
     </row>
     <row r="20">
@@ -1881,19 +1881,19 @@
         <v>30443</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>20131</v>
+        <v>20456</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>42391</v>
+        <v>42903</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.04351933112505917</v>
+        <v>0.04351933112505915</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02877798636246338</v>
+        <v>0.02924342785933518</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06060000243706812</v>
+        <v>0.06133153641936754</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>81</v>
@@ -1902,19 +1902,19 @@
         <v>49039</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>40070</v>
+        <v>38106</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>59962</v>
+        <v>59125</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.06680826513205829</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05458869466969227</v>
+        <v>0.05191369294400423</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.08168871387292348</v>
+        <v>0.08054872471206062</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>111</v>
@@ -1923,19 +1923,19 @@
         <v>79482</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>65994</v>
+        <v>65089</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>96505</v>
+        <v>95960</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05544409225798667</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04603555230150264</v>
+        <v>0.04540388385601924</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0673192873890114</v>
+        <v>0.06693902175542722</v>
       </c>
     </row>
     <row r="21">
@@ -1952,19 +1952,19 @@
         <v>145032</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>123449</v>
+        <v>123682</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>167486</v>
+        <v>168584</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2073313810112893</v>
+        <v>0.2073313810112892</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1764775321244151</v>
+        <v>0.1768096852820665</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.239430358618529</v>
+        <v>0.2410000784703775</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>326</v>
@@ -1973,19 +1973,19 @@
         <v>208262</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>189056</v>
+        <v>190274</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>228174</v>
+        <v>227497</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2837257217076992</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.2575605077321949</v>
+        <v>0.2592199616432601</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3108523548196682</v>
+        <v>0.3099306272880723</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>459</v>
@@ -1994,19 +1994,19 @@
         <v>353295</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>323248</v>
+        <v>326442</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>383286</v>
+        <v>383922</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2464479959855251</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.225488682993589</v>
+        <v>0.2277166417643367</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.2673692986132165</v>
+        <v>0.2678126681743212</v>
       </c>
     </row>
     <row r="22">
@@ -2023,19 +2023,19 @@
         <v>516653</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>494358</v>
+        <v>490516</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>541270</v>
+        <v>539683</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.7385829328975336</v>
+        <v>0.7385829328975335</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7067115179620874</v>
+        <v>0.7012187279701246</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7737738361992451</v>
+        <v>0.7715053135055643</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>668</v>
@@ -2044,19 +2044,19 @@
         <v>434246</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>413157</v>
+        <v>414064</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>454943</v>
+        <v>453565</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5915950850324541</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5628648917914828</v>
+        <v>0.5641003410557208</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6197908083734077</v>
+        <v>0.617913879978499</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1162</v>
@@ -2065,19 +2065,19 @@
         <v>950900</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>915470</v>
+        <v>918284</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>981020</v>
+        <v>981650</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.6633199356857511</v>
+        <v>0.663319935685751</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.6386053959533101</v>
+        <v>0.6405681735217882</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6843310841283278</v>
+        <v>0.6847702220052663</v>
       </c>
     </row>
     <row r="23">
@@ -2169,19 +2169,19 @@
         <v>11016</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5738</v>
+        <v>5881</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>17466</v>
+        <v>19363</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01819407331282015</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.009476556264928961</v>
+        <v>0.009712654075412349</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02884539294972411</v>
+        <v>0.03197986632808342</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>54</v>
@@ -2190,19 +2190,19 @@
         <v>33328</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>25900</v>
+        <v>25241</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>42885</v>
+        <v>43380</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.05509954586376766</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.04281920333074533</v>
+        <v>0.04172915696259481</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.07089983669732533</v>
+        <v>0.07171852352117992</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>66</v>
@@ -2211,19 +2211,19 @@
         <v>44344</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>34404</v>
+        <v>34687</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>55607</v>
+        <v>56796</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.03663728802431821</v>
+        <v>0.03663728802431822</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.02842501060728354</v>
+        <v>0.02865874360937432</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.04594307463246998</v>
+        <v>0.04692468634089025</v>
       </c>
     </row>
     <row r="25">
@@ -2240,19 +2240,19 @@
         <v>17073</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>9970</v>
+        <v>10923</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>25401</v>
+        <v>26209</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0281968242359182</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01646557132155286</v>
+        <v>0.01803955287938334</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.04195049268546183</v>
+        <v>0.04328618051698351</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>51</v>
@@ -2261,19 +2261,19 @@
         <v>29943</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>22528</v>
+        <v>22923</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>39576</v>
+        <v>39907</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.04950324188134533</v>
+        <v>0.04950324188134532</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.03724429347813291</v>
+        <v>0.03789788132243996</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.06542991703132005</v>
+        <v>0.06597653367816884</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>70</v>
@@ -2282,19 +2282,19 @@
         <v>47016</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>37177</v>
+        <v>37698</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>58903</v>
+        <v>59501</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.03884453603055757</v>
+        <v>0.03884453603055758</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.03071586434600214</v>
+        <v>0.0311458761206791</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.04866564576795387</v>
+        <v>0.04915987183676179</v>
       </c>
     </row>
     <row r="26">
@@ -2311,19 +2311,19 @@
         <v>97332</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>79740</v>
+        <v>81316</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>115376</v>
+        <v>117257</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1607492399958569</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1316947197411859</v>
+        <v>0.1342974576314072</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1905496251318834</v>
+        <v>0.1936567586133329</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>255</v>
@@ -2332,19 +2332,19 @@
         <v>152506</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>134799</v>
+        <v>137080</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>169668</v>
+        <v>170228</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2521317402020326</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2228584052979325</v>
+        <v>0.2266291912838722</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2805052293820438</v>
+        <v>0.281431591957241</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>359</v>
@@ -2353,19 +2353,19 @@
         <v>249838</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>227146</v>
+        <v>226958</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>277739</v>
+        <v>274367</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.206416913532603</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1876691581836767</v>
+        <v>0.1875132704113948</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2294686612892091</v>
+        <v>0.226683201774644</v>
       </c>
     </row>
     <row r="27">
@@ -2382,19 +2382,19 @@
         <v>480069</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>460989</v>
+        <v>459207</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>498887</v>
+        <v>496957</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.7928598624554049</v>
+        <v>0.7928598624554047</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.7613482194852874</v>
+        <v>0.7584053209548355</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.8239387530749224</v>
+        <v>0.8207519449041206</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>636</v>
@@ -2403,19 +2403,19 @@
         <v>389089</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>369776</v>
+        <v>368464</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>405609</v>
+        <v>406353</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.6432654720528544</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.6113366319313525</v>
+        <v>0.6091670048831329</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.6705782357333318</v>
+        <v>0.6718072391002126</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>1160</v>
@@ -2424,19 +2424,19 @@
         <v>869157</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>841114</v>
+        <v>842154</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>893958</v>
+        <v>893263</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.718101262412521</v>
+        <v>0.7181012624125213</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.6949319815338999</v>
+        <v>0.6957906337351162</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.738591840438227</v>
+        <v>0.7380175188217845</v>
       </c>
     </row>
     <row r="28">
@@ -2528,19 +2528,19 @@
         <v>4033</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1491</v>
+        <v>1597</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>9143</v>
+        <v>9422</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.009991029649098069</v>
+        <v>0.009991029649098072</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.003694929428724654</v>
+        <v>0.003955560920534663</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02265297175658652</v>
+        <v>0.0233435076914098</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>31</v>
@@ -2549,19 +2549,19 @@
         <v>17681</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>12101</v>
+        <v>12501</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>24762</v>
+        <v>24808</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.04037092855072641</v>
+        <v>0.0403709285507264</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02762960931116863</v>
+        <v>0.02854414947612924</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.05653866959119414</v>
+        <v>0.056643042872799</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>37</v>
@@ -2570,19 +2570,19 @@
         <v>21714</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>15428</v>
+        <v>15414</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>29509</v>
+        <v>29763</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02580071516575805</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01833217059497351</v>
+        <v>0.01831496168763136</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03506304658158145</v>
+        <v>0.03536555566983546</v>
       </c>
     </row>
     <row r="30">
@@ -2599,19 +2599,19 @@
         <v>6178</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>3084</v>
+        <v>3299</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>11112</v>
+        <v>11611</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01530611854272731</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.007641275609148156</v>
+        <v>0.008172818588119482</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.02752969409340369</v>
+        <v>0.02876593385648409</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>42</v>
@@ -2620,19 +2620,19 @@
         <v>21435</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>15395</v>
+        <v>15473</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>28382</v>
+        <v>28396</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.04894206069394411</v>
+        <v>0.0489420606939441</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03515135042133458</v>
+        <v>0.03532896152000357</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.06480464178058887</v>
+        <v>0.06483593555572263</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>52</v>
@@ -2641,19 +2641,19 @@
         <v>27613</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>20455</v>
+        <v>21346</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>36267</v>
+        <v>36666</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03281024747973317</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02430519123136964</v>
+        <v>0.02536366004923135</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0430927340696901</v>
+        <v>0.04356795551192329</v>
       </c>
     </row>
     <row r="31">
@@ -2670,19 +2670,19 @@
         <v>60329</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>48001</v>
+        <v>48322</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>72779</v>
+        <v>72465</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1494665546558552</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.118922693441227</v>
+        <v>0.1197188907168389</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1803131052042191</v>
+        <v>0.1795341749156178</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>183</v>
@@ -2691,19 +2691,19 @@
         <v>96393</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>84046</v>
+        <v>84008</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>110009</v>
+        <v>108590</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>0.2200943750976982</v>
+        <v>0.2200943750976981</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1919027112738834</v>
+        <v>0.1918146527824492</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2511823321077555</v>
+        <v>0.2479430861061129</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>266</v>
@@ -2712,19 +2712,19 @@
         <v>156722</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>140360</v>
+        <v>140375</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>175337</v>
+        <v>174609</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1862212401644636</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1667789938706847</v>
+        <v>0.1667967023481587</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2083399197231424</v>
+        <v>0.2074745763985938</v>
       </c>
     </row>
     <row r="32">
@@ -2741,19 +2741,19 @@
         <v>333088</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>320250</v>
+        <v>319591</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>345590</v>
+        <v>345529</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.8252362971523194</v>
+        <v>0.8252362971523195</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7934288128538347</v>
+        <v>0.7917961203563396</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.8562082656667667</v>
+        <v>0.8560590714485933</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>569</v>
@@ -2762,19 +2762,19 @@
         <v>302455</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>287802</v>
+        <v>287885</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>316152</v>
+        <v>316700</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.6905926356576314</v>
+        <v>0.6905926356576313</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.6571371754053731</v>
+        <v>0.6573249388924187</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.7218673319349306</v>
+        <v>0.723119831498976</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1036</v>
@@ -2783,19 +2783,19 @@
         <v>635543</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>614946</v>
+        <v>616411</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>652946</v>
+        <v>654748</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.7551677971900452</v>
+        <v>0.7551677971900453</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7306942999451144</v>
+        <v>0.7324345484925032</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7758465208208027</v>
+        <v>0.7779879237138164</v>
       </c>
     </row>
     <row r="33">
@@ -2887,19 +2887,19 @@
         <v>4942</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2281</v>
+        <v>2342</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>9963</v>
+        <v>9708</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.01602967715015091</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.007400217856954551</v>
+        <v>0.007597071829822593</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.03231546836805002</v>
+        <v>0.03149023998128022</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>36</v>
@@ -2908,19 +2908,19 @@
         <v>21377</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>14718</v>
+        <v>15422</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>29622</v>
+        <v>29596</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.04620337249530903</v>
+        <v>0.04620337249530904</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.03181020321504134</v>
+        <v>0.03333204311686597</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.06402279032670645</v>
+        <v>0.06396663164915198</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>44</v>
@@ -2929,19 +2929,19 @@
         <v>26319</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>18911</v>
+        <v>18863</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>35337</v>
+        <v>34978</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03413768177695213</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.02452966537625396</v>
+        <v>0.02446714356047481</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04583543241781118</v>
+        <v>0.04536858808526342</v>
       </c>
     </row>
     <row r="35">
@@ -2958,19 +2958,19 @@
         <v>5531</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>2674</v>
+        <v>2510</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>11069</v>
+        <v>10273</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.01794208614187462</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.00867293991033038</v>
+        <v>0.008141463061079024</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.03590594628355095</v>
+        <v>0.03332370928827399</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>54</v>
@@ -2979,19 +2979,19 @@
         <v>25643</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>19199</v>
+        <v>18705</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>33725</v>
+        <v>33339</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.05542251374809443</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.04149633677911847</v>
+        <v>0.04042814669790946</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07289161035766339</v>
+        <v>0.07205625779907199</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>63</v>
@@ -3000,19 +3000,19 @@
         <v>31174</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>24191</v>
+        <v>24033</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>39787</v>
+        <v>40733</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0404350472705759</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03137809973708228</v>
+        <v>0.03117308859125311</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.05160663296980972</v>
+        <v>0.0528341639068662</v>
       </c>
     </row>
     <row r="36">
@@ -3029,19 +3029,19 @@
         <v>53299</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>42521</v>
+        <v>42908</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>65894</v>
+        <v>66140</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1728852925494662</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1379268540575709</v>
+        <v>0.1391826354531326</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2137408063332094</v>
+        <v>0.2145375771042893</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>236</v>
@@ -3050,19 +3050,19 @@
         <v>122560</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>108767</v>
+        <v>108743</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>136452</v>
+        <v>137091</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2648940792009888</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2350821674519139</v>
+        <v>0.2350300067002743</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2949194468878888</v>
+        <v>0.2963002778218267</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>312</v>
@@ -3071,19 +3071,19 @@
         <v>175859</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>157191</v>
+        <v>158188</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>194229</v>
+        <v>196090</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2281021135365413</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2038895116693343</v>
+        <v>0.205181777899284</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.251930676342975</v>
+        <v>0.2543441296070004</v>
       </c>
     </row>
     <row r="37">
@@ -3100,19 +3100,19 @@
         <v>244517</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>230808</v>
+        <v>230703</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>255909</v>
+        <v>255664</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.7931429441585083</v>
+        <v>0.7931429441585082</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.7486742912507456</v>
+        <v>0.7483341495319947</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.8300931307915791</v>
+        <v>0.8292987185741543</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>550</v>
@@ -3121,19 +3121,19 @@
         <v>293095</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>278290</v>
+        <v>277202</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>308173</v>
+        <v>308307</v>
       </c>
       <c r="N37" s="6" t="n">
-        <v>0.6334800345556078</v>
+        <v>0.6334800345556079</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.6014797758608068</v>
+        <v>0.5991291475025662</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.666068158220418</v>
+        <v>0.6663580210761944</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>912</v>
@@ -3142,19 +3142,19 @@
         <v>537613</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>517932</v>
+        <v>516949</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>557238</v>
+        <v>559201</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.6973251574159306</v>
+        <v>0.6973251574159308</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.6717980339225923</v>
+        <v>0.6705233564794117</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.7227813794753245</v>
+        <v>0.7253267641011321</v>
       </c>
     </row>
     <row r="38">
@@ -3246,19 +3246,19 @@
         <v>39908</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>29053</v>
+        <v>29207</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>54103</v>
+        <v>54714</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.01134071447310502</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.00825596437309384</v>
+        <v>0.008299648256392896</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.01537438538715443</v>
+        <v>0.01554821243917731</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>229</v>
@@ -3267,19 +3267,19 @@
         <v>164366</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>143410</v>
+        <v>144336</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>191484</v>
+        <v>188905</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>0.04421879642763867</v>
+        <v>0.04421879642763868</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.03858099857924879</v>
+        <v>0.03882998942682016</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.05151414906088121</v>
+        <v>0.05082023931515924</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>271</v>
@@ -3288,19 +3288,19 @@
         <v>204275</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>180310</v>
+        <v>177342</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>234266</v>
+        <v>230979</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.02822980479224304</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.02491796024695145</v>
+        <v>0.02450780826329259</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.03237443274409432</v>
+        <v>0.03192025372255397</v>
       </c>
     </row>
     <row r="40">
@@ -3317,19 +3317,19 @@
         <v>91867</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>73089</v>
+        <v>72196</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>112643</v>
+        <v>114826</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.02610581770860988</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.02076969624177138</v>
+        <v>0.02051601383538845</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.03200977038386563</v>
+        <v>0.03263000778554936</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>311</v>
@@ -3338,19 +3338,19 @@
         <v>204432</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>181001</v>
+        <v>180803</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>231969</v>
+        <v>228870</v>
       </c>
       <c r="N40" s="6" t="n">
-        <v>0.05499755791139408</v>
+        <v>0.05499755791139409</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.04869388833423685</v>
+        <v>0.04864077407019943</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.06240550997747225</v>
+        <v>0.06157199699946698</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>401</v>
@@ -3359,19 +3359,19 @@
         <v>296299</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>266256</v>
+        <v>264413</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>329111</v>
+        <v>329081</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.04094717038960494</v>
+        <v>0.04094717038960496</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.03679533549858605</v>
+        <v>0.03654058706545119</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.04548158218692439</v>
+        <v>0.04547746360612297</v>
       </c>
     </row>
     <row r="41">
@@ -3388,19 +3388,19 @@
         <v>586408</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>544011</v>
+        <v>542902</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>641615</v>
+        <v>638092</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1666398371824442</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1545918764826306</v>
+        <v>0.1542765665435555</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1823279217255855</v>
+        <v>0.1813267745519235</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>1389</v>
@@ -3409,19 +3409,19 @@
         <v>948117</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>907100</v>
+        <v>899825</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>998544</v>
+        <v>991458</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.2550677596760471</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.2440330741996976</v>
+        <v>0.2420759182082962</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2686338899319402</v>
+        <v>0.2667276891170468</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>1941</v>
@@ -3430,19 +3430,19 @@
         <v>1534525</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>1468429</v>
+        <v>1465996</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>1606727</v>
+        <v>1602129</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.212064237906108</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.2029300682649942</v>
+        <v>0.2025937884606903</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2220421676699646</v>
+        <v>0.2214067018038248</v>
       </c>
     </row>
     <row r="42">
@@ -3459,19 +3459,19 @@
         <v>2800833</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>2742844</v>
+        <v>2745313</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>2849058</v>
+        <v>2851510</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.7959136306358409</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.7794349545605586</v>
+        <v>0.7801365590144244</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.8096179431022933</v>
+        <v>0.8103145223560215</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>3411</v>
@@ -3480,19 +3480,19 @@
         <v>2400202</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>2345251</v>
+        <v>2346307</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>2448851</v>
+        <v>2451901</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.64571588598492</v>
+        <v>0.6457158859849201</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.6309325529150348</v>
+        <v>0.6312167658141088</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.6588036384081315</v>
+        <v>0.6596241972483212</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>6088</v>
@@ -3501,19 +3501,19 @@
         <v>5201035</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>5124835</v>
+        <v>5122147</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>5278647</v>
+        <v>5271688</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.7187587869120441</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.7082283685316715</v>
+        <v>0.7078568982485525</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.7294844726102714</v>
+        <v>0.7285227549250574</v>
       </c>
     </row>
     <row r="43">
